--- a/biology/Botanique/Jungermanniaceae/Jungermanniaceae.xlsx
+++ b/biology/Botanique/Jungermanniaceae/Jungermanniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Jungermanniaceae sont une famille d'hépatiques de la classe des Jungermanniopsida (hépatiques à lobes), de l'ordre des Jungermanniales ou des Porellales selon les classifications.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-familles et genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (6 mars 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (6 mars 2020) :
 genre Anomomarsupella R.M. Schust.
 genre Eremonotus Lindb. &amp; Kaal. ex Pearson
 genre Hattoriella (Inoue) Inoue
@@ -522,19 +536,19 @@
 genre Leiocolea (Müll. Frib.) H. Buch
 genre Lophoziopsis Konstant. &amp; Vilnet
 genre Schistochilopsis (N. Kitag.) Konst.
-Selon Catalogue of Life                                   (6 mars 2020)[3] :
+Selon Catalogue of Life                                   (6 mars 2020) :
 genre Delavayella
 genre Eremonotus
 genre Jungermannia
 genre Liochlaena
 genre Mesoptychia
 genre Xenochila
-Selon ITIS      (6 mars 2020)[4] :
+Selon ITIS      (6 mars 2020) :
 genre Xenochila R.M. Schust.
 sous-famille des Delavayelloideae Grolle
 sous-famille des Jungermannioideae Dumort.
 sous-famille des Mesoptychioideae R.M. Schust.
-Selon Tropicos                                           (6 mars 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 mars 2020) (Attention liste brute contenant possiblement des synonymes) :
 genre Alicularia Corda
 genre Anomacaulis (R.M. Schust.) R.M. Schust. ex Grolle
 genre Aplozia (Dumort.) Dumort.
